--- a/Dataset/tutor.xlsx
+++ b/Dataset/tutor.xlsx
@@ -104,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -192,9 +192,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -202,6 +199,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -523,11 +523,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4">
-        <v>44653</v>
+      <c r="B2" s="7">
+        <v>44596</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -538,17 +538,17 @@
       <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>13</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4">
-        <v>44776</v>
+      <c r="B3" s="7">
+        <v>44628</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -559,17 +559,17 @@
       <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>14</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4">
-        <v>44840</v>
+      <c r="B4" s="7">
+        <v>44722</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -577,20 +577,18 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="1"/>
+      <c r="F4" s="5">
         <v>15</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4">
-        <v>44780</v>
+      <c r="B5" s="7">
+        <v>44750</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -599,18 +597,18 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
         <v>16</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -622,16 +620,16 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>17</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -641,21 +639,21 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
         <v>18</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4">
-        <v>45021</v>
+      <c r="B8" s="7">
+        <v>45050</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -663,19 +661,17 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="1"/>
+      <c r="F8" s="5">
         <v>19</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -684,13 +680,11 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="1"/>
+      <c r="F9" s="5">
         <v>20</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>

--- a/Dataset/tutor.xlsx
+++ b/Dataset/tutor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>bio</t>
   </si>
@@ -181,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,6 +200,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,8 +647,8 @@
       <c r="F7" s="5">
         <v>18</v>
       </c>
-      <c r="G7" s="5">
-        <v>13</v>
+      <c r="G7" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
